--- a/test-artifacts/media-reports/all-media.xlsx
+++ b/test-artifacts/media-reports/all-media.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,10 +424,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B2" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C2" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/themes/custom/geneseo_bootstrap5/images/geneseo-logo-simple.png</v>
@@ -444,10 +444,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B3" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C3" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/themes/custom/geneseo_bootstrap5/images/my-geneseo.png</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B4" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C4" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/sites/404%20Page/page-not-found-graphic.jpg</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B5" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C5" t="str">
         <v>https://www.geneseo.edu/sites/default/files/images/geneseo-logo.svg</v>
@@ -504,10 +504,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B6" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C6" t="str">
         <v>https://www.geneseo.edu/sites/default/files/sites/social/facebook.png</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B7" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C7" t="str">
         <v>https://www.geneseo.edu/sites/default/files/sites/social/instagram.png</v>
@@ -544,10 +544,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B8" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C8" t="str">
         <v>https://www.geneseo.edu/sites/default/files/sites/social/linkedin.png</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B9" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C9" t="str">
         <v>https://www.geneseo.edu/sites/default/files/images/bluesky.png</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B10" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C10" t="str">
         <v>https://www.geneseo.edu/sites/default/files/sites/social/youtube.png</v>
@@ -604,19 +604,19 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>3-2</v>
+        <v>2-1</v>
       </c>
       <c r="B11" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
       </c>
       <c r="C11" t="str">
-        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=f3e957ca-05e1-416a-ad25-546104541ab1&amp;bo=1&amp;sid=1ad80b609e0311f0bcf669ed69b88e86&amp;vid=1ad84e809e0311f0a7a05397cc71edab&amp;vids=1&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fjournals-and-reflections%2F&amp;r=&amp;lt=1029&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQAQ&amp;rn=946146</v>
+        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=3aa57b59-4993-466e-bd35-d7d65d5121d7&amp;bo=1&amp;sid=858ae0709e0811f092bf639d456feb70&amp;vid=858b4a509e0811f0973b254feeb8ff2e&amp;vids=1&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fboiling-flasks-round-bottom%2F&amp;r=&amp;lt=489&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQAQ&amp;rn=592926</v>
       </c>
       <c r="D11" t="str">
         <v>image</v>
       </c>
       <c r="E11" t="str">
-        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=f3e957ca-05e1-416a-ad25-546104541ab1&amp;bo=1&amp;sid=1ad80b609e0311f0bcf669ed69b88e86&amp;vid=1ad84e809e0311f0a7a05397cc71edab&amp;vids=1&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fjournals-and-reflections%2F&amp;r=&amp;lt=1029&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQAQ&amp;rn=946146</v>
+        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=3aa57b59-4993-466e-bd35-d7d65d5121d7&amp;bo=1&amp;sid=858ae0709e0811f092bf639d456feb70&amp;vid=858b4a509e0811f0973b254feeb8ff2e&amp;vids=1&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fboiling-flasks-round-bottom%2F&amp;r=&amp;lt=489&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQAQ&amp;rn=592926</v>
       </c>
       <c r="F11">
         <v>204</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B12" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C12" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/themes/custom/geneseo_bootstrap5/images/geneseo-logo-simple.png</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B13" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C13" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/themes/custom/geneseo_bootstrap5/images/my-geneseo.png</v>
@@ -664,10 +664,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B14" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C14" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/sites/404%20Page/page-not-found-graphic.jpg</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B15" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C15" t="str">
         <v>https://www.geneseo.edu/sites/default/files/images/geneseo-logo.svg</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B16" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C16" t="str">
         <v>https://www.geneseo.edu/sites/default/files/sites/social/facebook.png</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B17" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C17" t="str">
         <v>https://www.geneseo.edu/sites/default/files/sites/social/instagram.png</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B18" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C18" t="str">
         <v>https://www.geneseo.edu/sites/default/files/sites/social/linkedin.png</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B19" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C19" t="str">
         <v>https://www.geneseo.edu/sites/default/files/images/bluesky.png</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B20" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C20" t="str">
         <v>https://www.geneseo.edu/sites/default/files/sites/social/youtube.png</v>
@@ -804,19 +804,19 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>3-1</v>
+        <v>2-2</v>
       </c>
       <c r="B21" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/boiling-flasks-round-bottom/</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/journals-and-reflections/</v>
       </c>
       <c r="C21" t="str">
-        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=64a02a25-6b4d-4fb9-80dc-f3e78be5c411&amp;bo=1&amp;sid=1ac0b6309e0311f09d0f9d556f2e762f&amp;vid=1ac11b809e0311f0bb450b98c1a42525&amp;vids=1&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fboiling-flasks-round-bottom%2F&amp;r=&amp;lt=907&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQAQ&amp;rn=768826</v>
+        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=6d0e4dec-ba53-4693-ae40-b56f68c60c12&amp;bo=1&amp;sid=859cb4d09e0811f0aa011f88ece24a43&amp;vid=859ce0609e0811f096f3ad0e0bb56ae6&amp;vids=1&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fjournals-and-reflections%2F&amp;r=&amp;lt=604&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQAQ&amp;rn=837458</v>
       </c>
       <c r="D21" t="str">
         <v>image</v>
       </c>
       <c r="E21" t="str">
-        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=64a02a25-6b4d-4fb9-80dc-f3e78be5c411&amp;bo=1&amp;sid=1ac0b6309e0311f09d0f9d556f2e762f&amp;vid=1ac11b809e0311f0bb450b98c1a42525&amp;vids=1&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fboiling-flasks-round-bottom%2F&amp;r=&amp;lt=907&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQAQ&amp;rn=768826</v>
+        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=6d0e4dec-ba53-4693-ae40-b56f68c60c12&amp;bo=1&amp;sid=859cb4d09e0811f0aa011f88ece24a43&amp;vid=859ce0609e0811f096f3ad0e0bb56ae6&amp;vids=1&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fjournals-and-reflections%2F&amp;r=&amp;lt=604&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQAQ&amp;rn=837458</v>
       </c>
       <c r="F21">
         <v>204</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B22" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B23" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B24" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B25" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B26" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B27" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B28" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B29" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B30" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
@@ -1004,19 +1004,19 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="B31" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/basic_page/conh35clcl2-prep/</v>
       </c>
       <c r="C31" t="str">
-        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=c55f9f38-9713-48bc-bea5-263dcc7970e5&amp;bo=1&amp;sid=1ad80b609e0311f0bcf669ed69b88e86&amp;vid=1ad84e809e0311f0a7a05397cc71edab&amp;vids=0&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fconh35clcl2-prep%2F&amp;r=&amp;lt=137&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQkR&amp;rn=260886</v>
+        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=efdde95e-307b-4b01-8286-6279939ba5e9&amp;bo=1&amp;sid=859cb4d09e0811f0aa011f88ece24a43&amp;vid=859ce0609e0811f096f3ad0e0bb56ae6&amp;vids=0&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fconh35clcl2-prep%2F&amp;r=&amp;lt=255&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQkR&amp;rn=828266</v>
       </c>
       <c r="D31" t="str">
         <v>image</v>
       </c>
       <c r="E31" t="str">
-        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=c55f9f38-9713-48bc-bea5-263dcc7970e5&amp;bo=1&amp;sid=1ad80b609e0311f0bcf669ed69b88e86&amp;vid=1ad84e809e0311f0a7a05397cc71edab&amp;vids=0&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fconh35clcl2-prep%2F&amp;r=&amp;lt=137&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQkR&amp;rn=260886</v>
+        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=efdde95e-307b-4b01-8286-6279939ba5e9&amp;bo=1&amp;sid=859cb4d09e0811f0aa011f88ece24a43&amp;vid=859ce0609e0811f096f3ad0e0bb56ae6&amp;vids=0&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fconh35clcl2-prep%2F&amp;r=&amp;lt=255&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQkR&amp;rn=828266</v>
       </c>
       <c r="F31">
         <v>204</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B32" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
       </c>
       <c r="C32" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/themes/custom/geneseo_bootstrap5/images/geneseo-logo-simple.png</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B33" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
       </c>
       <c r="C33" t="str">
         <v>http://drupal-geneseo-backup.ddev.site/themes/custom/geneseo_bootstrap5/images/my-geneseo.png</v>
@@ -1064,39 +1064,39 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B34" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
       </c>
       <c r="C34" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/styles/banner_xxl/public/slideshow/compost-6.jpg?itok=TzJcJmjd</v>
+        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/sites/404%20Page/page-not-found-graphic.jpg</v>
       </c>
       <c r="D34" t="str">
         <v>image</v>
       </c>
       <c r="E34" t="str">
-        <v>/sites/default/files/styles/banner_xxl/public/slideshow/compost-6.jpg?itok=TzJcJmjd</v>
+        <v>/sites/default/files/sites/404%20Page/page-not-found-graphic.jpg</v>
       </c>
       <c r="F34">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B35" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
       </c>
       <c r="C35" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/styles/banner_xxl/public/slideshow/dance-bodies-in-motion.jpg?itok=M-Qr-W4M</v>
+        <v>https://www.geneseo.edu/sites/default/files/images/geneseo-logo.svg</v>
       </c>
       <c r="D35" t="str">
         <v>image</v>
       </c>
       <c r="E35" t="str">
-        <v>/sites/default/files/styles/banner_xxl/public/slideshow/dance-bodies-in-motion.jpg?itok=M-Qr-W4M</v>
+        <v>https://www.geneseo.edu/sites/default/files/images/geneseo-logo.svg</v>
       </c>
       <c r="F35">
         <v>200</v>
@@ -1104,19 +1104,19 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B36" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
       </c>
       <c r="C36" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/styles/banner_xxl/public/slideshow/discovery-cafe_0.jpg?itok=eu9IUp2u</v>
+        <v>https://www.geneseo.edu/sites/default/files/sites/social/facebook.png</v>
       </c>
       <c r="D36" t="str">
         <v>image</v>
       </c>
       <c r="E36" t="str">
-        <v>/sites/default/files/styles/banner_xxl/public/slideshow/discovery-cafe_0.jpg?itok=eu9IUp2u</v>
+        <v>https://www.geneseo.edu/sites/default/files/sites/social/facebook.png</v>
       </c>
       <c r="F36">
         <v>200</v>
@@ -1124,19 +1124,19 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B37" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
       </c>
       <c r="C37" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/styles/banner_xxl/public/slideshow/research-mclean.jpg?itok=G9Ko36L_</v>
+        <v>https://www.geneseo.edu/sites/default/files/sites/social/instagram.png</v>
       </c>
       <c r="D37" t="str">
         <v>image</v>
       </c>
       <c r="E37" t="str">
-        <v>/sites/default/files/styles/banner_xxl/public/slideshow/research-mclean.jpg?itok=G9Ko36L_</v>
+        <v>https://www.geneseo.edu/sites/default/files/sites/social/instagram.png</v>
       </c>
       <c r="F37">
         <v>200</v>
@@ -1144,19 +1144,19 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B38" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
       </c>
       <c r="C38" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/styles/banner_xxl/public/slideshow/7D0A7541.jpg?itok=Aa81U240</v>
+        <v>https://www.geneseo.edu/sites/default/files/sites/social/linkedin.png</v>
       </c>
       <c r="D38" t="str">
         <v>image</v>
       </c>
       <c r="E38" t="str">
-        <v>/sites/default/files/styles/banner_xxl/public/slideshow/7D0A7541.jpg?itok=Aa81U240</v>
+        <v>https://www.geneseo.edu/sites/default/files/sites/social/linkedin.png</v>
       </c>
       <c r="F38">
         <v>200</v>
@@ -1164,19 +1164,19 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B39" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
       </c>
       <c r="C39" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/images/classes-and-learning/jeff-over-teaching-geology-outside-square.jpg</v>
+        <v>https://www.geneseo.edu/sites/default/files/images/bluesky.png</v>
       </c>
       <c r="D39" t="str">
         <v>image</v>
       </c>
       <c r="E39" t="str">
-        <v>/sites/default/files/images/classes-and-learning/jeff-over-teaching-geology-outside-square.jpg</v>
+        <v>https://www.geneseo.edu/sites/default/files/images/bluesky.png</v>
       </c>
       <c r="F39">
         <v>200</v>
@@ -1184,19 +1184,19 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B40" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
       </c>
       <c r="C40" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/styles/square/public/images/Boakye-Boaten-horiz.jpg?itok=y1T6OZwu</v>
+        <v>https://www.geneseo.edu/sites/default/files/sites/social/youtube.png</v>
       </c>
       <c r="D40" t="str">
         <v>image</v>
       </c>
       <c r="E40" t="str">
-        <v>/sites/default/files/styles/square/public/images/Boakye-Boaten-horiz.jpg?itok=y1T6OZwu</v>
+        <v>https://www.geneseo.edu/sites/default/files/sites/social/youtube.png</v>
       </c>
       <c r="F40">
         <v>200</v>
@@ -1204,407 +1204,27 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="B41" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
+        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
       </c>
       <c r="C41" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/styles/square/public/images/Joe-Cope-WEB.jpg?itok=9jqZrFvS</v>
+        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=0af70e59-1947-4c56-81b2-8eb0399133d7&amp;bo=1&amp;sid=858ae0709e0811f092bf639d456feb70&amp;vid=858b4a509e0811f0973b254feeb8ff2e&amp;vids=0&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fmofs-part-3%2F&amp;r=&amp;lt=180&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQkR&amp;rn=970059</v>
       </c>
       <c r="D41" t="str">
         <v>image</v>
       </c>
       <c r="E41" t="str">
-        <v>/sites/default/files/styles/square/public/images/Joe-Cope-WEB.jpg?itok=9jqZrFvS</v>
+        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=0af70e59-1947-4c56-81b2-8eb0399133d7&amp;bo=1&amp;sid=858ae0709e0811f092bf639d456feb70&amp;vid=858b4a509e0811f0973b254feeb8ff2e&amp;vids=0&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fmofs-part-3%2F&amp;r=&amp;lt=180&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQkR&amp;rn=970059</v>
       </c>
       <c r="F41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B42" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="C42" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/styles/square/public/images/Screen%20Shot%202024-10-18%20at%209.25.28%20AM_0.png?itok=R2xngk2I</v>
-      </c>
-      <c r="D42" t="str">
-        <v>image</v>
-      </c>
-      <c r="E42" t="str">
-        <v>/sites/default/files/styles/square/public/images/Screen%20Shot%202024-10-18%20at%209.25.28%20AM_0.png?itok=R2xngk2I</v>
-      </c>
-      <c r="F42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B43" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="C43" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/styles/square/public/images/confident-female-doctor-in-modern-hospital-with-st-2024-07-17-16-35-09-utc-WEB.jpg?itok=NVRUdNBR</v>
-      </c>
-      <c r="D43" t="str">
-        <v>image</v>
-      </c>
-      <c r="E43" t="str">
-        <v>/sites/default/files/styles/square/public/images/confident-female-doctor-in-modern-hospital-with-st-2024-07-17-16-35-09-utc-WEB.jpg?itok=NVRUdNBR</v>
-      </c>
-      <c r="F43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B44" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="C44" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/images/geneseo-logo.svg</v>
-      </c>
-      <c r="D44" t="str">
-        <v>image</v>
-      </c>
-      <c r="E44" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/images/geneseo-logo.svg</v>
-      </c>
-      <c r="F44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B45" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="C45" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/facebook.png</v>
-      </c>
-      <c r="D45" t="str">
-        <v>image</v>
-      </c>
-      <c r="E45" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/facebook.png</v>
-      </c>
-      <c r="F45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B46" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="C46" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/instagram.png</v>
-      </c>
-      <c r="D46" t="str">
-        <v>image</v>
-      </c>
-      <c r="E46" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/instagram.png</v>
-      </c>
-      <c r="F46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B47" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="C47" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/linkedin.png</v>
-      </c>
-      <c r="D47" t="str">
-        <v>image</v>
-      </c>
-      <c r="E47" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/linkedin.png</v>
-      </c>
-      <c r="F47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B48" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="C48" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/images/bluesky.png</v>
-      </c>
-      <c r="D48" t="str">
-        <v>image</v>
-      </c>
-      <c r="E48" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/images/bluesky.png</v>
-      </c>
-      <c r="F48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B49" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="C49" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/youtube.png</v>
-      </c>
-      <c r="D49" t="str">
-        <v>image</v>
-      </c>
-      <c r="E49" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/youtube.png</v>
-      </c>
-      <c r="F49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B50" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/academics</v>
-      </c>
-      <c r="C50" t="str">
-        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=a2c1c9c2-2354-4c98-b4af-a9bebcc9b8db&amp;bo=1&amp;sid=1ac0b6309e0311f09d0f9d556f2e762f&amp;vid=1ac11b809e0311f0bb450b98c1a42525&amp;vids=0&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Academics%20at%20Geneseo%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Facademics&amp;r=&amp;lt=342&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQkR&amp;rn=691476</v>
-      </c>
-      <c r="D50" t="str">
-        <v>image</v>
-      </c>
-      <c r="E50" t="str">
-        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=a2c1c9c2-2354-4c98-b4af-a9bebcc9b8db&amp;bo=1&amp;sid=1ac0b6309e0311f09d0f9d556f2e762f&amp;vid=1ac11b809e0311f0bb450b98c1a42525&amp;vids=0&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Academics%20at%20Geneseo%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Facademics&amp;r=&amp;lt=342&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQkR&amp;rn=691476</v>
-      </c>
-      <c r="F50">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B51" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C51" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/themes/custom/geneseo_bootstrap5/images/geneseo-logo-simple.png</v>
-      </c>
-      <c r="D51" t="str">
-        <v>image</v>
-      </c>
-      <c r="E51" t="str">
-        <v>/themes/custom/geneseo_bootstrap5/images/geneseo-logo-simple.png</v>
-      </c>
-      <c r="F51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B52" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C52" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/themes/custom/geneseo_bootstrap5/images/my-geneseo.png</v>
-      </c>
-      <c r="D52" t="str">
-        <v>image</v>
-      </c>
-      <c r="E52" t="str">
-        <v>/themes/custom/geneseo_bootstrap5/images/my-geneseo.png</v>
-      </c>
-      <c r="F52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B53" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C53" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/sites/default/files/sites/404%20Page/page-not-found-graphic.jpg</v>
-      </c>
-      <c r="D53" t="str">
-        <v>image</v>
-      </c>
-      <c r="E53" t="str">
-        <v>/sites/default/files/sites/404%20Page/page-not-found-graphic.jpg</v>
-      </c>
-      <c r="F53">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B54" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C54" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/images/geneseo-logo.svg</v>
-      </c>
-      <c r="D54" t="str">
-        <v>image</v>
-      </c>
-      <c r="E54" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/images/geneseo-logo.svg</v>
-      </c>
-      <c r="F54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B55" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C55" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/facebook.png</v>
-      </c>
-      <c r="D55" t="str">
-        <v>image</v>
-      </c>
-      <c r="E55" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/facebook.png</v>
-      </c>
-      <c r="F55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B56" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C56" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/instagram.png</v>
-      </c>
-      <c r="D56" t="str">
-        <v>image</v>
-      </c>
-      <c r="E56" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/instagram.png</v>
-      </c>
-      <c r="F56">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B57" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C57" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/linkedin.png</v>
-      </c>
-      <c r="D57" t="str">
-        <v>image</v>
-      </c>
-      <c r="E57" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/linkedin.png</v>
-      </c>
-      <c r="F57">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B58" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C58" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/images/bluesky.png</v>
-      </c>
-      <c r="D58" t="str">
-        <v>image</v>
-      </c>
-      <c r="E58" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/images/bluesky.png</v>
-      </c>
-      <c r="F58">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B59" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C59" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/youtube.png</v>
-      </c>
-      <c r="D59" t="str">
-        <v>image</v>
-      </c>
-      <c r="E59" t="str">
-        <v>https://www.geneseo.edu/sites/default/files/sites/social/youtube.png</v>
-      </c>
-      <c r="F59">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="B60" t="str">
-        <v>http://drupal-geneseo-backup.ddev.site/basic_page/mofs-part-3/</v>
-      </c>
-      <c r="C60" t="str">
-        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=ca5b3da7-2ba7-4e3d-9291-3afbb89ff99d&amp;bo=1&amp;sid=1ac0b6309e0311f09d0f9d556f2e762f&amp;vid=1ac11b809e0311f0bb450b98c1a42525&amp;vids=0&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fmofs-part-3%2F&amp;r=&amp;lt=192&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQkR&amp;rn=784496</v>
-      </c>
-      <c r="D60" t="str">
-        <v>image</v>
-      </c>
-      <c r="E60" t="str">
-        <v>https://bat.bing.com/action/0?ti=73008797&amp;tm=gtm002&amp;Ver=2&amp;mid=ca5b3da7-2ba7-4e3d-9291-3afbb89ff99d&amp;bo=1&amp;sid=1ac0b6309e0311f09d0f9d556f2e762f&amp;vid=1ac11b809e0311f0bb450b98c1a42525&amp;vids=0&amp;msclkid=N&amp;gtm_tag_source=1&amp;pi=0&amp;lg=en-US&amp;sw=1280&amp;sh=720&amp;sc=24&amp;nwd=1&amp;tl=Page%20Not%20Found%20%7C%20SUNY%20Geneseo&amp;p=http%3A%2F%2Fdrupal-geneseo-backup.ddev.site%2Fbasic_page%2Fmofs-part-3%2F&amp;r=&amp;lt=192&amp;evt=pageLoad&amp;sv=2&amp;cdb=AQkR&amp;rn=784496</v>
-      </c>
-      <c r="F60">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F60"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/media-reports/all-media.xlsx
+++ b/test-artifacts/media-reports/all-media.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,16 +433,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B2" t="str">
-        <v>http://localhost/sunny/admissions/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/</v>
       </c>
       <c r="C2" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2025/10/geneseo-logo.svg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/11/geneseo-logo.svg</v>
       </c>
       <c r="D2" t="str">
         <v>image</v>
       </c>
       <c r="E2" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2025/10/geneseo-logo.svg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/11/geneseo-logo.svg</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -456,22 +456,22 @@
         <v>B1-W1</v>
       </c>
       <c r="B3" t="str">
-        <v>http://localhost/sunny/admissions/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/</v>
       </c>
       <c r="C3" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/wp-content/uploads/2025/04/my-geneseo.png</v>
       </c>
       <c r="D3" t="str">
         <v>image</v>
       </c>
       <c r="E3" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
+        <v>/wp-content/uploads/2025/04/my-geneseo.png</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -479,16 +479,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B4" t="str">
-        <v>http://localhost/sunny/admissions/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/</v>
       </c>
       <c r="C4" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2022/07/american-studies-geneneseo-classroom.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2018/10/jeff-over-teaching-geology-outside-square.jpg</v>
       </c>
       <c r="D4" t="str">
         <v>image</v>
       </c>
       <c r="E4" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2022/07/american-studies-geneneseo-classroom.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2018/10/jeff-over-teaching-geology-outside-square.jpg</v>
       </c>
       <c r="F4">
         <v>200</v>
@@ -502,16 +502,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B5" t="str">
-        <v>http://localhost/sunny/academics/schools-and-departments/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/</v>
       </c>
       <c r="C5" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2025/10/geneseo-logo.svg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/Public-Admin-2-WEB_0.jpg</v>
       </c>
       <c r="D5" t="str">
         <v>image</v>
       </c>
       <c r="E5" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2025/10/geneseo-logo.svg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/Public-Admin-2-WEB_0.jpg</v>
       </c>
       <c r="F5">
         <v>200</v>
@@ -525,16 +525,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B6" t="str">
-        <v>http://localhost/sunny/academics/schools-and-departments/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/</v>
       </c>
       <c r="C6" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/Student-by-bookshelves-WEB.jpg</v>
       </c>
       <c r="D6" t="str">
         <v>image</v>
       </c>
       <c r="E6" t="str">
-        <v>data:image/svg+xml;base64,PHN2ZyB3aWR0aD0iMSIgaGVpZ2h0PSIxIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciPjwvc3ZnPg==</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/Student-by-bookshelves-WEB.jpg</v>
       </c>
       <c r="F6">
         <v>200</v>
@@ -548,16 +548,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B7" t="str">
-        <v>http://localhost/sunny/academics/schools-and-departments/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/</v>
       </c>
       <c r="C7" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2019/03/student-lab-microscope.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/laptop-with-paperwork-on-wood-table-in-living-room-2024-12-05-14-11-47-utc-WEB.jpg</v>
       </c>
       <c r="D7" t="str">
         <v>image</v>
       </c>
       <c r="E7" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2019/03/student-lab-microscope.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/laptop-with-paperwork-on-wood-table-in-living-room-2024-12-05-14-11-47-utc-WEB.jpg</v>
       </c>
       <c r="F7">
         <v>200</v>
@@ -571,16 +571,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B8" t="str">
-        <v>http://localhost/sunny/academics/schools-and-departments/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academics/</v>
       </c>
       <c r="C8" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2019/03/students-in-bridge-building-challenge-class-2013.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/Boakye-Boaten-horiz.jpg</v>
       </c>
       <c r="D8" t="str">
         <v>image</v>
       </c>
       <c r="E8" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2019/03/students-in-bridge-building-challenge-class-2013.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/Boakye-Boaten-horiz.jpg</v>
       </c>
       <c r="F8">
         <v>200</v>
@@ -594,16 +594,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B9" t="str">
-        <v>http://localhost/sunny/academics/schools-and-departments/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
       </c>
       <c r="C9" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2009/05/trading-room-students-square.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/11/geneseo-logo.svg</v>
       </c>
       <c r="D9" t="str">
         <v>image</v>
       </c>
       <c r="E9" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2009/05/trading-room-students-square.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/11/geneseo-logo.svg</v>
       </c>
       <c r="F9">
         <v>200</v>
@@ -617,22 +617,22 @@
         <v>B1-W1</v>
       </c>
       <c r="B10" t="str">
-        <v>http://localhost/sunny/academics/schools-and-departments/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
       </c>
       <c r="C10" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2016/02/wes-kennison-teaching-class-square.jpg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/wp-content/uploads/2025/04/my-geneseo.png</v>
       </c>
       <c r="D10" t="str">
         <v>image</v>
       </c>
       <c r="E10" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2016/02/wes-kennison-teaching-class-square.jpg</v>
+        <v>/wp-content/uploads/2025/04/my-geneseo.png</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -640,27 +640,533 @@
         <v>B1-W1</v>
       </c>
       <c r="B11" t="str">
-        <v>http://localhost/sunny/academics/schools-and-departments/</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
       </c>
       <c r="C11" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2025/09/geneseo-logo.svg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/american-studies-geneneseo-classroom.jpg</v>
       </c>
       <c r="D11" t="str">
         <v>image</v>
       </c>
       <c r="E11" t="str">
-        <v>http://localhost/sunny/wp-content/uploads/2025/09/geneseo-logo.svg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/american-studies-geneneseo-classroom.jpg</v>
       </c>
       <c r="F11">
         <v>200</v>
       </c>
       <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B12" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2024/11/AI5I5416.jpg</v>
+      </c>
+      <c r="D12" t="str">
+        <v>image</v>
+      </c>
+      <c r="E12" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2024/11/AI5I5416.jpg</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/musical-theatre-geneseo-students-in-show.jpg</v>
+      </c>
+      <c r="D13" t="str">
+        <v>image</v>
+      </c>
+      <c r="E13" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/musical-theatre-geneseo-students-in-show.jpg</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B14" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2017/01/7D0A5513-copy-websized.jpg</v>
+      </c>
+      <c r="D14" t="str">
+        <v>image</v>
+      </c>
+      <c r="E14" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2017/01/7D0A5513-copy-websized.jpg</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2019/06/fireworks-geneseo-gazebo.jpg</v>
+      </c>
+      <c r="D15" t="str">
+        <v>image</v>
+      </c>
+      <c r="E15" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2019/06/fireworks-geneseo-gazebo.jpg</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2023/03/geneseo-campus-green.jpg</v>
+      </c>
+      <c r="D16" t="str">
+        <v>image</v>
+      </c>
+      <c r="E16" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2023/03/geneseo-campus-green.jpg</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B17" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/geneseo-student-kayaking-letchworth-1024x683.jpg</v>
+      </c>
+      <c r="D17" t="str">
+        <v>image</v>
+      </c>
+      <c r="E17" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/geneseo-student-kayaking-letchworth-1024x683.jpg</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B18" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2017/10/saratoga-townhouse-kitchen-living-room.jpg</v>
+      </c>
+      <c r="D18" t="str">
+        <v>image</v>
+      </c>
+      <c r="E18" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2017/10/saratoga-townhouse-kitchen-living-room.jpg</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B19" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C19" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/saratoga-front-1024x683.jpg</v>
+      </c>
+      <c r="D19" t="str">
+        <v>image</v>
+      </c>
+      <c r="E19" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/saratoga-front-1024x683.jpg</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B20" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C20" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2017/06/monroe.hall_.students.jpg</v>
+      </c>
+      <c r="D20" t="str">
+        <v>image</v>
+      </c>
+      <c r="E20" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2017/06/monroe.hall_.students.jpg</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B21" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C21" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2016/06/students-in-class-02.jpg</v>
+      </c>
+      <c r="D21" t="str">
+        <v>image</v>
+      </c>
+      <c r="E21" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2016/06/students-in-class-02.jpg</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B22" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C22" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2018/08/Geneseo-Campus-College-Green_0.jpg</v>
+      </c>
+      <c r="D22" t="str">
+        <v>image</v>
+      </c>
+      <c r="E22" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2018/08/Geneseo-Campus-College-Green_0.jpg</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B23" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C23" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/students-walking-fall-2018-clock-outside.jpg</v>
+      </c>
+      <c r="D23" t="str">
+        <v>image</v>
+      </c>
+      <c r="E23" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/students-walking-fall-2018-clock-outside.jpg</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B24" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/music-geneseo-orchestra-students.jpg</v>
+      </c>
+      <c r="D24" t="str">
+        <v>image</v>
+      </c>
+      <c r="E24" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/music-geneseo-orchestra-students.jpg</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B25" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/geneseo-student-teacher-with-child.jpg</v>
+      </c>
+      <c r="D25" t="str">
+        <v>image</v>
+      </c>
+      <c r="E25" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/geneseo-student-teacher-with-child.jpg</v>
+      </c>
+      <c r="F25">
+        <v>200</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B26" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C26" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2024/07/particle-accelerator_0.jpg</v>
+      </c>
+      <c r="D26" t="str">
+        <v>image</v>
+      </c>
+      <c r="E26" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2024/07/particle-accelerator_0.jpg</v>
+      </c>
+      <c r="F26">
+        <v>200</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B27" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/accounting-trading-room.jpg</v>
+      </c>
+      <c r="D27" t="str">
+        <v>image</v>
+      </c>
+      <c r="E27" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/accounting-trading-room.jpg</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B28" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/welles-hall_0-1024x1024.jpg</v>
+      </c>
+      <c r="D28" t="str">
+        <v>image</v>
+      </c>
+      <c r="E28" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/welles-hall_0-1024x1024.jpg</v>
+      </c>
+      <c r="F28">
+        <v>200</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B29" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/student-working-1-1024x1024.jpg</v>
+      </c>
+      <c r="D29" t="str">
+        <v>image</v>
+      </c>
+      <c r="E29" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/student-working-1-1024x1024.jpg</v>
+      </c>
+      <c r="F29">
+        <v>200</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B30" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C30" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/physics-particle-accel-1024x1024.jpg</v>
+      </c>
+      <c r="D30" t="str">
+        <v>image</v>
+      </c>
+      <c r="E30" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/physics-particle-accel-1024x1024.jpg</v>
+      </c>
+      <c r="F30">
+        <v>200</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B31" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C31" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/e-garden-1-1024x1024.jpg</v>
+      </c>
+      <c r="D31" t="str">
+        <v>image</v>
+      </c>
+      <c r="E31" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/e-garden-1-1024x1024.jpg</v>
+      </c>
+      <c r="F31">
+        <v>200</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B32" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C32" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/students-from-above.jpg</v>
+      </c>
+      <c r="D32" t="str">
+        <v>image</v>
+      </c>
+      <c r="E32" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2022/07/students-from-above.jpg</v>
+      </c>
+      <c r="F32">
+        <v>200</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>B1-W1</v>
+      </c>
+      <c r="B33" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/TravelTimeMap-1.jpg</v>
+      </c>
+      <c r="D33" t="str">
+        <v>image</v>
+      </c>
+      <c r="E33" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/wp-content/uploads/2025/10/TravelTimeMap-1.jpg</v>
+      </c>
+      <c r="F33">
+        <v>200</v>
+      </c>
+      <c r="G33" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H33"/>
   </ignoredErrors>
 </worksheet>
 </file>